--- a/medicine/Pharmacie/Éribuline/Éribuline.xlsx
+++ b/medicine/Pharmacie/Éribuline/Éribuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ribuline</t>
+          <t>Éribuline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'éribuline mesylate est un antinéoplasique fabriqué par le laboratoire Eisai Co.. C'est une cétone macrocyclique synthétique analogue du macrolide halichondrine B (en), isolée en 1986 à partir de l'éponge japonaise Halichondria okadai[2],[3].
-Ce composé anticancéreux est autorisé depuis 2010 aux États-Unis dans le traitement du cancer du sein métastatique en troisième ligne[4].
+L'éribuline mesylate est un antinéoplasique fabriqué par le laboratoire Eisai Co.. C'est une cétone macrocyclique synthétique analogue du macrolide halichondrine B (en), isolée en 1986 à partir de l'éponge japonaise Halichondria okadai,.
+Ce composé anticancéreux est autorisé depuis 2010 aux États-Unis dans le traitement du cancer du sein métastatique en troisième ligne.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ribuline</t>
+          <t>Éribuline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ribuline</t>
+          <t>Éribuline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ribuline</t>
+          <t>Éribuline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,9 +581,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'érubiline est un inhibiteur du métabolisme des microtubules[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'érubiline est un inhibiteur du métabolisme des microtubules,.
 </t>
         </is>
       </c>
